--- a/Proteasome/in_vivo/results/5CV/external.xlsx
+++ b/Proteasome/in_vivo/results/5CV/external.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>model</t>
   </si>
@@ -25,7 +25,25 @@
     <t>auc_roc</t>
   </si>
   <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Sens</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>Acc</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
     <t>ap</t>
+  </si>
+  <si>
+    <t>MCC</t>
   </si>
   <si>
     <t>invivo_2</t>
@@ -392,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,10 +429,28 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -423,12 +459,30 @@
         <v>0.8515057609715064</v>
       </c>
       <c r="D2">
+        <v>-0.06469999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.8238380864229022</v>
+      </c>
+      <c r="F2">
+        <v>0.7344094541389498</v>
+      </c>
+      <c r="G2">
+        <v>0.7753086502053224</v>
+      </c>
+      <c r="H2">
+        <v>0.7791237702809259</v>
+      </c>
+      <c r="I2">
         <v>0.8122226824648479</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="J2">
+        <v>0.5566983494705244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -437,12 +491,30 @@
         <v>0.8350233504932574</v>
       </c>
       <c r="D3">
+        <v>0.0045</v>
+      </c>
+      <c r="E3">
+        <v>0.7568408637700655</v>
+      </c>
+      <c r="F3">
+        <v>0.7596358434362183</v>
+      </c>
+      <c r="G3">
+        <v>0.7582699674779811</v>
+      </c>
+      <c r="H3">
+        <v>0.7582383536031418</v>
+      </c>
+      <c r="I3">
         <v>0.8248689616984392</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="J3">
+        <v>0.5163986663322354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -451,12 +523,30 @@
         <v>0.8175877526048845</v>
       </c>
       <c r="D4">
+        <v>-0.0135</v>
+      </c>
+      <c r="E4">
+        <v>0.750183713167311</v>
+      </c>
+      <c r="F4">
+        <v>0.7358155132416105</v>
+      </c>
+      <c r="G4">
+        <v>0.74283970039212</v>
+      </c>
+      <c r="H4">
+        <v>0.7429996132044607</v>
+      </c>
+      <c r="I4">
         <v>0.8047704904082312</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="J4">
+        <v>0.4858818732855695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -465,12 +555,30 @@
         <v>0.8085027277379734</v>
       </c>
       <c r="D5">
+        <v>0.0165</v>
+      </c>
+      <c r="E5">
+        <v>0.7273228154060645</v>
+      </c>
+      <c r="F5">
+        <v>0.7442766972947719</v>
+      </c>
+      <c r="G5">
+        <v>0.7359902210794748</v>
+      </c>
+      <c r="H5">
+        <v>0.7357997563504182</v>
+      </c>
+      <c r="I5">
         <v>0.798338595576858</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="J5">
+        <v>0.4716594872966657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -479,12 +587,30 @@
         <v>0.6700962323023087</v>
       </c>
       <c r="D6">
+        <v>0.2491</v>
+      </c>
+      <c r="E6">
+        <v>0.6046716711609941</v>
+      </c>
+      <c r="F6">
+        <v>0.6492309960198516</v>
+      </c>
+      <c r="G6">
+        <v>0.6288522688638681</v>
+      </c>
+      <c r="H6">
+        <v>0.6269513335904229</v>
+      </c>
+      <c r="I6">
         <v>0.6329235496232091</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="J6">
+        <v>0.2535333421416637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -493,12 +619,30 @@
         <v>0.737173379387871</v>
       </c>
       <c r="D7">
+        <v>0.0194</v>
+      </c>
+      <c r="E7">
+        <v>0.6649792272039576</v>
+      </c>
+      <c r="F7">
+        <v>0.6860693203482096</v>
+      </c>
+      <c r="G7">
+        <v>0.6757589988025077</v>
+      </c>
+      <c r="H7">
+        <v>0.6755242737760836</v>
+      </c>
+      <c r="I7">
         <v>0.7240473019399133</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="J7">
+        <v>0.3511082664810852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -507,12 +651,30 @@
         <v>0.6443475483674892</v>
       </c>
       <c r="D8">
+        <v>0.1955</v>
+      </c>
+      <c r="E8">
+        <v>0.5582238659013953</v>
+      </c>
+      <c r="F8">
+        <v>0.6548223350253807</v>
+      </c>
+      <c r="G8">
+        <v>0.6075982061095588</v>
+      </c>
+      <c r="H8">
+        <v>0.606523100463388</v>
+      </c>
+      <c r="I8">
         <v>0.6357646389446328</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="J8">
+        <v>0.2140956268894318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -521,12 +683,30 @@
         <v>0.7874659338318373</v>
       </c>
       <c r="D9">
+        <v>0.0066</v>
+      </c>
+      <c r="E9">
+        <v>0.7110769376360367</v>
+      </c>
+      <c r="F9">
+        <v>0.7202637597056882</v>
+      </c>
+      <c r="G9">
+        <v>0.7157757014530677</v>
+      </c>
+      <c r="H9">
+        <v>0.7156703486708624</v>
+      </c>
+      <c r="I9">
         <v>0.7753074745099842</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="J9">
+        <v>0.4313057444202119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -535,12 +715,30 @@
         <v>0.7542228595150009</v>
       </c>
       <c r="D10">
+        <v>-0.0146</v>
+      </c>
+      <c r="E10">
+        <v>0.6933093593262042</v>
+      </c>
+      <c r="F10">
+        <v>0.6820285453444332</v>
+      </c>
+      <c r="G10">
+        <v>0.6875395860398241</v>
+      </c>
+      <c r="H10">
+        <v>0.6876689523353188</v>
+      </c>
+      <c r="I10">
         <v>0.7421377311817475</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="J10">
+        <v>0.3752405094462558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -549,12 +747,30 @@
         <v>0.8123220569479509</v>
       </c>
       <c r="D11">
+        <v>-0.0097</v>
+      </c>
+      <c r="E11">
+        <v>0.7417952115075234</v>
+      </c>
+      <c r="F11">
+        <v>0.7330766240927046</v>
+      </c>
+      <c r="G11">
+        <v>0.7373359346466267</v>
+      </c>
+      <c r="H11">
+        <v>0.737435917800114</v>
+      </c>
+      <c r="I11">
         <v>0.8003497961865678</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="J11">
+        <v>0.4747480383826168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -563,12 +779,30 @@
         <v>0.8442739807235582</v>
       </c>
       <c r="D12">
+        <v>-0.07290000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.8203264930146871</v>
+      </c>
+      <c r="F12">
+        <v>0.7226689689195855</v>
+      </c>
+      <c r="G12">
+        <v>0.7673534104707523</v>
+      </c>
+      <c r="H12">
+        <v>0.7714977309671363</v>
+      </c>
+      <c r="I12">
         <v>0.8010499273482683</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="J12">
+        <v>0.5417570403615771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -577,12 +811,30 @@
         <v>0.8467197113248245</v>
       </c>
       <c r="D13">
+        <v>-0.0538</v>
+      </c>
+      <c r="E13">
+        <v>0.8139458560634791</v>
+      </c>
+      <c r="F13">
+        <v>0.7377797182371064</v>
+      </c>
+      <c r="G13">
+        <v>0.7726224831934876</v>
+      </c>
+      <c r="H13">
+        <v>0.7758627871502928</v>
+      </c>
+      <c r="I13">
         <v>0.8004757598152346</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="J13">
+        <v>0.549959712481895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -591,12 +843,30 @@
         <v>0.8041551647799113</v>
       </c>
       <c r="D14">
+        <v>-0.0224</v>
+      </c>
+      <c r="E14">
+        <v>0.7501858465126449</v>
+      </c>
+      <c r="F14">
+        <v>0.7143015085253795</v>
+      </c>
+      <c r="G14">
+        <v>0.7307128238972328</v>
+      </c>
+      <c r="H14">
+        <v>0.7322436775190122</v>
+      </c>
+      <c r="I14">
         <v>0.7684939155013089</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="J14">
+        <v>0.4627968349972535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -605,12 +875,30 @@
         <v>0.673767361379717</v>
       </c>
       <c r="D15">
+        <v>0.0382</v>
+      </c>
+      <c r="E15">
+        <v>0.606894104286931</v>
+      </c>
+      <c r="F15">
+        <v>0.6474405907928158</v>
+      </c>
+      <c r="G15">
+        <v>0.627632327173707</v>
+      </c>
+      <c r="H15">
+        <v>0.6271673475398734</v>
+      </c>
+      <c r="I15">
         <v>0.6616176775589466</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="J15">
+        <v>0.2545417088389972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -619,12 +907,30 @@
         <v>0.7084005530619645</v>
       </c>
       <c r="D16">
+        <v>0.1576</v>
+      </c>
+      <c r="E16">
+        <v>0.642766562203921</v>
+      </c>
+      <c r="F16">
+        <v>0.6687386369220186</v>
+      </c>
+      <c r="G16">
+        <v>0.6568605883646981</v>
+      </c>
+      <c r="H16">
+        <v>0.6557525995629698</v>
+      </c>
+      <c r="I16">
         <v>0.6698106825123766</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="J16">
+        <v>0.3107987208512653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -633,12 +939,30 @@
         <v>0.7748831628409982</v>
       </c>
       <c r="D17">
+        <v>0.0298</v>
+      </c>
+      <c r="E17">
+        <v>0.6903580605653082</v>
+      </c>
+      <c r="F17">
+        <v>0.7209086524105933</v>
+      </c>
+      <c r="G17">
+        <v>0.7059733734062786</v>
+      </c>
+      <c r="H17">
+        <v>0.7056333564879508</v>
+      </c>
+      <c r="I17">
         <v>0.7621508936411054</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="J17">
+        <v>0.4114892973014006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -647,12 +971,30 @@
         <v>0.6246650336539979</v>
       </c>
       <c r="D18">
+        <v>0.1919</v>
+      </c>
+      <c r="E18">
+        <v>0.520994605848396</v>
+      </c>
+      <c r="F18">
+        <v>0.6597291898292522</v>
+      </c>
+      <c r="G18">
+        <v>0.5919528804767431</v>
+      </c>
+      <c r="H18">
+        <v>0.5903618978388241</v>
+      </c>
+      <c r="I18">
         <v>0.6147416485443722</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="J18">
+        <v>0.1825491958238526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -661,12 +1003,30 @@
         <v>0.8500348663664946</v>
       </c>
       <c r="D19">
+        <v>-0.0645</v>
+      </c>
+      <c r="E19">
+        <v>0.82182944606414</v>
+      </c>
+      <c r="F19">
+        <v>0.7338153804568185</v>
+      </c>
+      <c r="G19">
+        <v>0.7740700984738881</v>
+      </c>
+      <c r="H19">
+        <v>0.7778224132604792</v>
+      </c>
+      <c r="I19">
         <v>0.8078135696034876</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="J19">
+        <v>0.5540789472022675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -675,12 +1035,30 @@
         <v>0.8546722483436272</v>
       </c>
       <c r="D20">
+        <v>-0.0224</v>
+      </c>
+      <c r="E20">
+        <v>0.7885977762301578</v>
+      </c>
+      <c r="F20">
+        <v>0.7665709626294875</v>
+      </c>
+      <c r="G20">
+        <v>0.7773392190471718</v>
+      </c>
+      <c r="H20">
+        <v>0.7775843694298227</v>
+      </c>
+      <c r="I20">
         <v>0.8427855649232945</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="J20">
+        <v>0.5550571331973406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -689,12 +1067,30 @@
         <v>0.8705418953916744</v>
       </c>
       <c r="D21">
+        <v>-0.0205</v>
+      </c>
+      <c r="E21">
+        <v>0.8039585025155087</v>
+      </c>
+      <c r="F21">
+        <v>0.7875377171033264</v>
+      </c>
+      <c r="G21">
+        <v>0.7955686846823982</v>
+      </c>
+      <c r="H21">
+        <v>0.7957481098094176</v>
+      </c>
+      <c r="I21">
         <v>0.8552551480955062</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="J21">
+        <v>0.5913585726550387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -703,12 +1099,30 @@
         <v>0.8503692575188468</v>
       </c>
       <c r="D22">
+        <v>-0.0568</v>
+      </c>
+      <c r="E22">
+        <v>0.8179578747904672</v>
+      </c>
+      <c r="F22">
+        <v>0.7380902658346027</v>
+      </c>
+      <c r="G22">
+        <v>0.774616856321954</v>
+      </c>
+      <c r="H22">
+        <v>0.778024070312535</v>
+      </c>
+      <c r="I22">
         <v>0.8132646423840337</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="J22">
+        <v>0.5543119614333825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -717,12 +1131,30 @@
         <v>0.8417329679445318</v>
       </c>
       <c r="D23">
+        <v>-0.0484</v>
+      </c>
+      <c r="E23">
+        <v>0.8031484585671598</v>
+      </c>
+      <c r="F23">
+        <v>0.7338214338361752</v>
+      </c>
+      <c r="G23">
+        <v>0.7655274016892319</v>
+      </c>
+      <c r="H23">
+        <v>0.7684849462016674</v>
+      </c>
+      <c r="I23">
         <v>0.8056923256934981</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="J23">
+        <v>0.5351597560204097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -731,12 +1163,30 @@
         <v>0.7157102289047756</v>
       </c>
       <c r="D24">
+        <v>0.0265</v>
+      </c>
+      <c r="E24">
+        <v>0.6414687233841204</v>
+      </c>
+      <c r="F24">
+        <v>0.6737984832461065</v>
+      </c>
+      <c r="G24">
+        <v>0.6580043550422791</v>
+      </c>
+      <c r="H24">
+        <v>0.6576336033151134</v>
+      </c>
+      <c r="I24">
         <v>0.7038809703536506</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="J24">
+        <v>0.315431201836975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -745,12 +1195,30 @@
         <v>0.6920674409635292</v>
       </c>
       <c r="D25">
+        <v>0.1073</v>
+      </c>
+      <c r="E25">
+        <v>0.5990346053168752</v>
+      </c>
+      <c r="F25">
+        <v>0.6890874428646898</v>
+      </c>
+      <c r="G25">
+        <v>0.6450632792505107</v>
+      </c>
+      <c r="H25">
+        <v>0.6440610240907825</v>
+      </c>
+      <c r="I25">
         <v>0.6793443081638759</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="J25">
+        <v>0.2894003490831251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>9</v>
@@ -759,12 +1227,30 @@
         <v>0.8416913390349073</v>
       </c>
       <c r="D26">
+        <v>0.0044</v>
+      </c>
+      <c r="E26">
+        <v>0.7632855270442275</v>
+      </c>
+      <c r="F26">
+        <v>0.7651224803398716</v>
+      </c>
+      <c r="G26">
+        <v>0.7642250675567904</v>
+      </c>
+      <c r="H26">
+        <v>0.7642040036920495</v>
+      </c>
+      <c r="I26">
         <v>0.8315212896302869</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="J26">
+        <v>0.528320479463555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -773,12 +1259,30 @@
         <v>0.8297254067586047</v>
       </c>
       <c r="D27">
+        <v>0.0109</v>
+      </c>
+      <c r="E27">
+        <v>0.7474827292514432</v>
+      </c>
+      <c r="F27">
+        <v>0.7592085401017797</v>
+      </c>
+      <c r="G27">
+        <v>0.7534801041141742</v>
+      </c>
+      <c r="H27">
+        <v>0.7533456346766114</v>
+      </c>
+      <c r="I27">
         <v>0.8181755479446757</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="J27">
+        <v>0.5066960965895708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -787,12 +1291,30 @@
         <v>0.7557414142019996</v>
       </c>
       <c r="D28">
+        <v>0.0045</v>
+      </c>
+      <c r="E28">
+        <v>0.6941257925807157</v>
+      </c>
+      <c r="F28">
+        <v>0.6889342047073854</v>
+      </c>
+      <c r="G28">
+        <v>0.6913085214887107</v>
+      </c>
+      <c r="H28">
+        <v>0.6915299986440506</v>
+      </c>
+      <c r="I28">
         <v>0.7167493896331787</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="J28">
+        <v>0.3818074677359772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>11</v>
@@ -801,12 +1323,30 @@
         <v>0.8634167051855253</v>
       </c>
       <c r="D29">
+        <v>-0.0519</v>
+      </c>
+      <c r="E29">
+        <v>0.8155026593425756</v>
+      </c>
+      <c r="F29">
+        <v>0.761054326779863</v>
+      </c>
+      <c r="G29">
+        <v>0.7877352892306962</v>
+      </c>
+      <c r="H29">
+        <v>0.7882784930612192</v>
+      </c>
+      <c r="I29">
         <v>0.8472763972373996</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="J29">
+        <v>0.576974481778558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -815,12 +1355,30 @@
         <v>0.8746741528220173</v>
       </c>
       <c r="D30">
+        <v>-0.0321</v>
+      </c>
+      <c r="E30">
+        <v>0.8140087801035553</v>
+      </c>
+      <c r="F30">
+        <v>0.7833211593324053</v>
+      </c>
+      <c r="G30">
+        <v>0.7983234517170531</v>
+      </c>
+      <c r="H30">
+        <v>0.7986649697179803</v>
+      </c>
+      <c r="I30">
         <v>0.8616419440324976</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="J30">
+        <v>0.5972723040938526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -829,7 +1387,25 @@
         <v>0.8717109165533614</v>
       </c>
       <c r="D31">
+        <v>-0.0341</v>
+      </c>
+      <c r="E31">
+        <v>0.8119401551355635</v>
+      </c>
+      <c r="F31">
+        <v>0.7794922915786185</v>
+      </c>
+      <c r="G31">
+        <v>0.7953551277445532</v>
+      </c>
+      <c r="H31">
+        <v>0.795716223357091</v>
+      </c>
+      <c r="I31">
         <v>0.8588860029219481</v>
+      </c>
+      <c r="J31">
+        <v>0.5913959151815685</v>
       </c>
     </row>
   </sheetData>
